--- a/Excel intermediário/Exercicios_Excel_Intermadiário.xlsx
+++ b/Excel intermediário/Exercicios_Excel_Intermadiário.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55119\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juliana\OneDrive\Desktop\Estudos\Excel intermediário\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941F35EF-EF89-4AE6-B1E8-20370178102A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6254044-A0C3-4AB3-8670-42DD4DE2EA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="903" xr2:uid="{19F902EB-DB2F-42BB-A2D1-6D00D52FD232}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="687" firstSheet="12" activeTab="15" xr2:uid="{19F902EB-DB2F-42BB-A2D1-6D00D52FD232}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor ARRUMAR" sheetId="8" r:id="rId1"/>
@@ -30,17 +30,28 @@
     <sheet name="Aluno Separar Tel, CPF e CNPJ" sheetId="21" r:id="rId15"/>
     <sheet name="Aluno Separar Tel, CPF e Arruma" sheetId="22" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="138">
   <si>
     <t>rose@gmail.com</t>
   </si>
@@ -126,18 +137,6 @@
     <t xml:space="preserve">    Nicolas    Pereira                         </t>
   </si>
   <si>
-    <t xml:space="preserve">         LEONARDO          ALMEIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELIANE              MOREIRA             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    NICOLAS    PEREIRA                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          AMANDA MARTINS              </t>
-  </si>
-  <si>
     <t>PAULO         SANTOS</t>
   </si>
   <si>
@@ -163,30 +162,6 @@
   </si>
   <si>
     <t>Nota 4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>Calça</t>
@@ -540,9 +515,6 @@
   </si>
   <si>
     <t>depois na mesma formula, coloque os separadores de ponto e traço entre os números</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
   <si>
     <t>=TRIM(B10)</t>
@@ -722,7 +694,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +794,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -908,12 +888,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -968,10 +949,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Moeda 2" xfId="3" xr:uid="{F841D5C9-FF4B-460C-8A92-BE23B2A4689E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -994,9 +984,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1034,7 +1024,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1140,7 +1130,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1282,7 +1272,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1292,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C948934-2D39-404B-999F-89DCE3DA9AB4}">
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1307,7 +1297,7 @@
   <sheetData>
     <row r="2" spans="2:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -1316,22 +1306,22 @@
     </row>
     <row r="4" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="H4" s="1"/>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2"/>
       <c r="H5" s="1"/>
       <c r="P5" s="21" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
@@ -1346,10 +1336,10 @@
     </row>
     <row r="8" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1509,7 +1499,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F10" sqref="F10:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1523,7 +1513,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -1532,22 +1522,22 @@
     </row>
     <row r="4" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="H4" s="1"/>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2"/>
       <c r="H5" s="1"/>
       <c r="J5" s="21" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
@@ -1562,10 +1552,10 @@
     </row>
     <row r="8" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1588,83 +1578,131 @@
     </row>
     <row r="10" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B10" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C10" s="8">
         <v>89.99</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="18" t="str">
+        <f>TRIM(PROPER(B10))</f>
+        <v>Leonardo Almeida</v>
+      </c>
+      <c r="F10" s="19">
+        <f>C10</f>
+        <v>89.99</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B11" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C11" s="8">
         <v>69.989999999999995</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="18" t="str">
+        <f t="shared" ref="E11:E17" si="0">TRIM(PROPER(B11))</f>
+        <v>Eliane Moreira</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" ref="F11:F17" si="1">C11</f>
+        <v>69.989999999999995</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B12" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C12" s="8">
         <v>153.4</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas Pereira</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
+        <v>153.4</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B13" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C13" s="8">
         <v>148.56</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Amanda Martins</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
+        <v>148.56</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="8">
         <v>146.13999999999999</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulo Santos</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="1"/>
+        <v>146.13999999999999</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8">
         <v>224.14</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Aline Rosa Alves</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="1"/>
+        <v>224.14</v>
+      </c>
     </row>
     <row r="16" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8">
         <v>150.5</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Angela Maria</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="1"/>
+        <v>150.5</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" s="8">
         <v>248.73</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Carlos Moreira Pires</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="1"/>
+        <v>248.73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1677,7 +1715,7 @@
   <dimension ref="B1:T14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,6 +1723,7 @@
     <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="13.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
@@ -1693,7 +1732,7 @@
     </row>
     <row r="2" spans="2:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E2"/>
       <c r="G2"/>
@@ -1706,13 +1745,13 @@
     </row>
     <row r="4" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4"/>
       <c r="H4" s="1"/>
       <c r="T4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
@@ -1721,174 +1760,199 @@
       <c r="G5"/>
       <c r="H5" s="1"/>
       <c r="T5" s="21" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="17"/>
+      <c r="B7" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11">
+        <v>8</v>
+      </c>
+      <c r="E7" s="11">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="G7" s="17">
+        <f>(C7+D7+E7+F7)/4</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="17"/>
+      <c r="B8" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4</v>
+      </c>
+      <c r="F8" s="11">
+        <v>3</v>
+      </c>
+      <c r="G8" s="25">
+        <f t="shared" ref="G8:G14" si="0">(C8+D8+E8+F8)/4</f>
+        <v>5.25</v>
+      </c>
     </row>
     <row r="9" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="17"/>
+      <c r="B9" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="11">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3</v>
+      </c>
+      <c r="F9" s="11">
+        <v>8</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="17"/>
+      <c r="B10" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="24">
+        <v>9</v>
+      </c>
+      <c r="D10" s="11">
+        <v>6</v>
+      </c>
+      <c r="E10" s="11">
+        <v>8</v>
+      </c>
+      <c r="F10" s="11">
+        <v>8</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
     </row>
     <row r="11" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="17"/>
+      <c r="B11" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11">
+        <v>7</v>
+      </c>
+      <c r="E11" s="11">
+        <v>9</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
     </row>
     <row r="12" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="B12" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="11">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
+      <c r="E12" s="11">
+        <v>10</v>
+      </c>
+      <c r="F12" s="11">
+        <v>7</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
     </row>
     <row r="13" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="B13" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="11">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11">
+        <v>7</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="B14" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="11">
+        <v>8</v>
+      </c>
+      <c r="D14" s="11">
+        <v>7</v>
+      </c>
+      <c r="E14" s="11">
+        <v>4</v>
+      </c>
+      <c r="F14" s="11">
+        <v>8</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1899,7 +1963,7 @@
   <dimension ref="B1:O17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1916,7 +1980,7 @@
     </row>
     <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1932,26 +1996,26 @@
     </row>
     <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="O4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="O5" s="21" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -1961,7 +2025,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -1969,74 +2033,128 @@
         <v>12</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="C9" s="18" t="str">
+        <f>SUBSTITUTE(B9,"Calça","Meia")</f>
+        <v>Roupa Feminino Meia</v>
+      </c>
+      <c r="D9" s="18" t="str">
+        <f>SUBSTITUTE(B9,"Roupa","Produto")</f>
+        <v>Produto Feminino Calça</v>
+      </c>
     </row>
     <row r="10" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f t="shared" ref="C10:C17" si="0">SUBSTITUTE(B10,"Calça","Meia")</f>
+        <v>Meia Feminina Roupa</v>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f t="shared" ref="D10:D17" si="1">SUBSTITUTE(B10,"Roupa","Produto")</f>
+        <v>Calça Feminina Produto</v>
+      </c>
     </row>
     <row r="11" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Camisa Masculina</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Camisa Masculina</v>
+      </c>
     </row>
     <row r="12" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Bermuda Masculino</v>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bermuda Masculino</v>
+      </c>
     </row>
     <row r="13" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Camisa Masculina Festa Balada</v>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Camisa Masculina Festa Balada</v>
+      </c>
     </row>
     <row r="14" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+        <v>86</v>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Roupa Jogger Meia</v>
+      </c>
+      <c r="D14" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Produto Jogger Calça</v>
+      </c>
     </row>
     <row r="15" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Jaqueta Masculina Preta</v>
+      </c>
+      <c r="D15" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Jaqueta Masculina Preta</v>
+      </c>
     </row>
     <row r="16" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Bolsa de Trabalho</v>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bolsa de Trabalho</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Kit de Pinceis de Maquiagem</v>
+      </c>
+      <c r="D17" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Kit de Pinceis de Maquiagem</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2048,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61D5F7E-5C83-4766-B499-260B0D5ED2A8}">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2059,7 +2177,7 @@
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2072,7 +2190,7 @@
     </row>
     <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2087,12 +2205,12 @@
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="O3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
@@ -2101,7 +2219,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="O4" s="21" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -2113,164 +2231,218 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="O5" s="21" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B7" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="18" t="str">
+        <f>TRIM(PROPER(B7&amp;" "&amp;C7&amp;" "&amp;D7&amp;" "&amp;E7&amp;" "&amp;F7))</f>
+        <v>Tênis Feminino</v>
+      </c>
+      <c r="H7" s="18" t="str">
+        <f>TRIM(PROPER(_xlfn.CONCAT(B7," ",C7," ",D7," ",E7," ",F7)))</f>
+        <v>Tênis Feminino</v>
+      </c>
     </row>
     <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="18" t="str">
+        <f t="shared" ref="G8:G15" si="0">TRIM(PROPER(B8&amp;" "&amp;C8&amp;" "&amp;D8&amp;" "&amp;E8&amp;" "&amp;F8))</f>
+        <v>Calça Feminina Jogger</v>
+      </c>
+      <c r="H8" s="18" t="str">
+        <f>TRIM(PROPER(_xlfn.CONCAT(B8," ",C8," ",D8," ",E8," ",F8)))</f>
+        <v>Calça Feminina Jogger</v>
+      </c>
     </row>
     <row r="9" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Camisa Masculina</v>
+      </c>
+      <c r="H9" s="18" t="str">
+        <f t="shared" ref="H9:H15" si="1">TRIM(PROPER(_xlfn.CONCAT(B9," ",C9," ",D9," ",E9," ",F9)))</f>
+        <v>Camisa Masculina</v>
+      </c>
     </row>
     <row r="10" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B10" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Bermuda Masculino</v>
+      </c>
+      <c r="H10" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bermuda Masculino</v>
+      </c>
     </row>
     <row r="11" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Camisa Masculina Festa Balada</v>
+      </c>
+      <c r="H11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Camisa Masculina Festa Balada</v>
+      </c>
     </row>
     <row r="12" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Bota Masculina</v>
+      </c>
+      <c r="H12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bota Masculina</v>
+      </c>
     </row>
     <row r="13" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Jaqueta Masculina Preta</v>
+      </c>
+      <c r="H13" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Jaqueta Masculina Preta</v>
+      </c>
     </row>
     <row r="14" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Bolsa De Trabalho</v>
+      </c>
+      <c r="H14" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bolsa De Trabalho</v>
+      </c>
     </row>
     <row r="15" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="G15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Kit De Pinceis De Maquiagem</v>
+      </c>
+      <c r="H15" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Kit De Pinceis De Maquiagem</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2281,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B9C339-66FA-44A7-9E6C-5965EE48843A}">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2290,7 +2462,7 @@
     <col min="2" max="2" width="57.5546875" customWidth="1"/>
     <col min="3" max="3" width="22.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2303,7 +2475,7 @@
     </row>
     <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="1"/>
@@ -2314,13 +2486,13 @@
     </row>
     <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="F4" s="1"/>
       <c r="H4"/>
       <c r="O4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -2329,7 +2501,7 @@
       <c r="F5" s="1"/>
       <c r="H5"/>
       <c r="O5" s="21" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -2343,56 +2515,92 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="C7" s="20">
+        <f>SEARCH("@",B7,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="20">
+        <f>SEARCH(".",B7,C7)</f>
+        <v>11</v>
+      </c>
+      <c r="E7" s="20" t="str">
+        <f>MID(B7,C7+1,D7-C7-1)</f>
+        <v>gmail</v>
+      </c>
+      <c r="F7" s="20" t="str">
+        <f>MID(B7,FIND("@",B7,1)+1,FIND(".",B7,FIND("@",B7,1))-FIND("@",B7,1)-1)</f>
+        <v>gmail</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="O7" s="21" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="C8" s="20">
+        <f t="shared" ref="C8:C12" si="0">SEARCH("@",B8,1)</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" ref="D8:D12" si="1">SEARCH(".",B8,C8)</f>
+        <v>14</v>
+      </c>
+      <c r="E8" s="20" t="str">
+        <f t="shared" ref="E8:E12" si="2">MID(B8,C8+1,D8-C8-1)</f>
+        <v>hotmail</v>
+      </c>
+      <c r="F8" s="20" t="str">
+        <f t="shared" ref="F8:F12" si="3">MID(B8,FIND("@",B8,1)+1,FIND(".",B8,FIND("@",B8,1))-FIND("@",B8,1)-1)</f>
+        <v>hotmail</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="O8" s="21" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="C9" s="20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>yahoo</v>
+      </c>
+      <c r="F9" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>yahoo</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2401,10 +2609,22 @@
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="C10" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="20">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E10" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>gmail</v>
+      </c>
+      <c r="F10" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>gmail</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2413,19 +2633,43 @@
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="C11" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E11" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>hotmail</v>
+      </c>
+      <c r="F11" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>hotmail</v>
+      </c>
     </row>
     <row r="12" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="C12" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E12" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>yahoo</v>
+      </c>
+      <c r="F12" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>yahoo</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2446,7 +2690,7 @@
   <dimension ref="B1:O9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2465,7 +2709,7 @@
     </row>
     <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2"/>
@@ -2476,19 +2720,19 @@
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="O3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4"/>
       <c r="O4" s="21" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -2498,7 +2742,7 @@
       <c r="F5" s="1"/>
       <c r="G5"/>
       <c r="O5" s="21" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -2506,28 +2750,37 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="C7" s="20">
+        <f>SEARCH(" ",B7,1)-1</f>
+        <v>9</v>
+      </c>
+      <c r="D7" s="20" t="str">
+        <f>MID(B7,C7+1,100)</f>
+        <v xml:space="preserve"> 4554-1101</v>
+      </c>
+      <c r="E7" s="20" t="str">
+        <f>MID(B7,SEARCH(" ",B7,1)-1+1,100)</f>
+        <v xml:space="preserve"> 4554-1101</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2535,22 +2788,40 @@
     </row>
     <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+        <v>69</v>
+      </c>
+      <c r="C8" s="20">
+        <f t="shared" ref="C8:C9" si="0">SEARCH(" ",B8,1)-1</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="20" t="str">
+        <f t="shared" ref="D8:D9" si="1">MID(B8,C8+1,100)</f>
+        <v xml:space="preserve"> 123.456.789-10</v>
+      </c>
+      <c r="E8" s="20" t="str">
+        <f t="shared" ref="E8:E9" si="2">MID(B8,SEARCH(" ",B8,1)-1+1,100)</f>
+        <v xml:space="preserve"> 123.456.789-10</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+        <v>70</v>
+      </c>
+      <c r="C9" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 06.990.590/0001-23</v>
+      </c>
+      <c r="E9" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 06.990.590/0001-23</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2564,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FB5D8F-5564-4B6D-BCCF-3DB50FAF5A4D}">
   <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2575,7 +2846,7 @@
     <col min="4" max="4" width="40.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
@@ -2584,7 +2855,7 @@
     </row>
     <row r="2" spans="2:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2"/>
@@ -2595,31 +2866,31 @@
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4"/>
       <c r="P4" s="21" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5"/>
       <c r="P5" s="21" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -2629,7 +2900,7 @@
       <c r="F6" s="1"/>
       <c r="G6"/>
       <c r="P6" s="21" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
@@ -2637,62 +2908,92 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="P7" s="21" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="C8" s="20">
+        <f>FIND(":",B8,1)</f>
+        <v>9</v>
+      </c>
+      <c r="D8" s="20" t="str">
+        <f>MID(B8,C8+2,100)</f>
+        <v>45541101</v>
+      </c>
+      <c r="E8" s="20" t="str">
+        <f>MID(B8,FIND(":",B8,1)+2,100)</f>
+        <v>45541101</v>
+      </c>
+      <c r="F8" s="20" t="str">
+        <f>MID(E8,1,4)&amp;"-"&amp;MID(E8,1,4)</f>
+        <v>4554-4554</v>
+      </c>
+      <c r="G8" s="20" t="str">
+        <f>MID(MID(B8,FIND(":",B8,1)+2,100),1,4)&amp;"-"&amp;MID(MID(B8,FIND(":",B8,1)+2,100),1,4)</f>
+        <v>4554-4554</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="P8" s="21" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="C9" s="20">
+        <f>FIND(":",B9,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="20" t="str">
+        <f>MID(B9,C9+2,100)</f>
+        <v>12345678910</v>
+      </c>
+      <c r="E9" s="20" t="str">
+        <f>MID(B9,FIND(":",B9,1)+2,100)</f>
+        <v>12345678910</v>
+      </c>
+      <c r="F9" s="20" t="str">
+        <f>MID(E9,1,3)&amp;"."&amp;MID(E9,4,3)&amp;"."&amp;MID(E9,7,3)&amp;"-"&amp;MID(E9,10,2)</f>
+        <v>123.456.789-10</v>
+      </c>
+      <c r="G9" s="20" t="str">
+        <f>MID(MID(B9,FIND(":",B9,1)+2,100),1,3)&amp;"."&amp;MID(MID(B9,FIND(":",B9,1)+2,100),4,3)&amp;"."&amp;MID(MID(B9,FIND(":",B9,1)+2,100),7,3)&amp;"-"&amp;MID(MID(B9,FIND(":",B9,1)+2,100),10,2)</f>
+        <v>123.456.789-10</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="P9" s="21"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="P11" s="21" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
@@ -2700,7 +3001,7 @@
       <c r="F12" s="1"/>
       <c r="H12" s="1"/>
       <c r="P12" s="21" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
@@ -2708,34 +3009,43 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <f>LEFT(B14,3)</f>
+        <v>Tel</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f>IF(LEFT(B14,3)="CPF","É CPF","É telefone")</f>
+        <v>É telefone</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="C15" s="20" t="str">
+        <f>LEFT(B15,3)</f>
+        <v>CPF</v>
+      </c>
+      <c r="D15" s="20" t="str">
+        <f>IF(LEFT(B15,3)="CPF","É CPF","É telefone")</f>
+        <v>É CPF</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
@@ -2766,7 +3076,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -2775,22 +3085,22 @@
     </row>
     <row r="4" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="H4" s="1"/>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2"/>
       <c r="H5" s="1"/>
       <c r="J5" s="21" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
@@ -2805,10 +3115,10 @@
     </row>
     <row r="8" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2831,7 +3141,7 @@
     </row>
     <row r="10" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B10" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C10" s="8">
         <v>89.99</v>
@@ -2847,7 +3157,7 @@
     </row>
     <row r="11" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B11" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C11" s="8">
         <v>69.989999999999995</v>
@@ -2863,7 +3173,7 @@
     </row>
     <row r="12" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B12" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C12" s="8">
         <v>153.4</v>
@@ -2879,7 +3189,7 @@
     </row>
     <row r="13" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B13" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C13" s="8">
         <v>148.56</v>
@@ -2895,7 +3205,7 @@
     </row>
     <row r="14" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="8">
         <v>146.13999999999999</v>
@@ -2911,7 +3221,7 @@
     </row>
     <row r="15" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8">
         <v>224.14</v>
@@ -2927,7 +3237,7 @@
     </row>
     <row r="16" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8">
         <v>150.5</v>
@@ -2943,7 +3253,7 @@
     </row>
     <row r="17" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" s="8">
         <v>248.73</v>
@@ -2967,7 +3277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FB4327-4B77-4AAE-A2C4-EA6526694469}">
   <dimension ref="B1:T14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2985,7 +3295,7 @@
     </row>
     <row r="2" spans="2:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E2"/>
       <c r="G2"/>
@@ -2998,13 +3308,13 @@
     </row>
     <row r="4" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4"/>
       <c r="H4" s="1"/>
       <c r="T4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
@@ -3013,7 +3323,7 @@
       <c r="G5"/>
       <c r="H5" s="1"/>
       <c r="T5" s="21" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
@@ -3021,27 +3331,27 @@
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B7" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
@@ -3066,7 +3376,7 @@
     </row>
     <row r="8" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B8" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C8" s="11">
         <v>10</v>
@@ -3091,7 +3401,7 @@
     </row>
     <row r="9" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B9" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C9" s="11">
         <v>5</v>
@@ -3116,7 +3426,7 @@
     </row>
     <row r="10" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B10" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C10" s="11">
         <v>9</v>
@@ -3141,7 +3451,7 @@
     </row>
     <row r="11" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B11" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C11" s="11">
         <v>4</v>
@@ -3166,7 +3476,7 @@
     </row>
     <row r="12" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B12" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C12" s="11">
         <v>5</v>
@@ -3191,7 +3501,7 @@
     </row>
     <row r="13" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B13" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C13" s="11">
         <v>10</v>
@@ -3216,7 +3526,7 @@
     </row>
     <row r="14" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B14" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C14" s="11">
         <v>8</v>
@@ -3269,7 +3579,7 @@
     </row>
     <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3287,26 +3597,26 @@
     </row>
     <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="O4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="O5" s="21" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -3316,7 +3626,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -3324,18 +3634,18 @@
         <v>12</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="33.6" x14ac:dyDescent="0.65">
       <c r="B9" s="9" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C9" s="22" t="str">
         <f>SUBSTITUTE(B9,"Calça","Meia")</f>
@@ -3354,7 +3664,7 @@
     </row>
     <row r="10" spans="2:15" ht="33.6" x14ac:dyDescent="0.65">
       <c r="B10" s="9" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C10" s="22" t="str">
         <f>SUBSTITUTE(B10,"Calça","Meia")</f>
@@ -3390,7 +3700,7 @@
     </row>
     <row r="12" spans="2:15" ht="33.6" x14ac:dyDescent="0.65">
       <c r="B12" s="9" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C12" s="22" t="str">
         <f>SUBSTITUTE(B12,"Calça","Meia")</f>
@@ -3424,7 +3734,7 @@
     </row>
     <row r="14" spans="2:15" ht="33.6" x14ac:dyDescent="0.65">
       <c r="B14" s="9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C14" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3525,7 +3835,7 @@
     </row>
     <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3540,12 +3850,12 @@
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="O3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
@@ -3554,7 +3864,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="O4" s="21" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -3566,38 +3876,38 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="O5" s="21" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B7" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -3629,13 +3939,13 @@
     </row>
     <row r="8" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -3666,10 +3976,10 @@
     </row>
     <row r="9" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3693,10 +4003,10 @@
     </row>
     <row r="10" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B10" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -3716,16 +4026,16 @@
     </row>
     <row r="11" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="18" t="str">
@@ -3743,10 +4053,10 @@
     </row>
     <row r="12" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -3766,13 +4076,13 @@
     </row>
     <row r="13" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -3791,13 +4101,13 @@
     </row>
     <row r="14" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -3816,19 +4126,19 @@
     </row>
     <row r="15" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G15" s="18" t="str">
         <f t="shared" si="2"/>
@@ -3875,7 +4185,7 @@
     </row>
     <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="1"/>
@@ -3886,13 +4196,13 @@
     </row>
     <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="F4" s="1"/>
       <c r="H4"/>
       <c r="O4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -3901,7 +4211,7 @@
       <c r="F5" s="1"/>
       <c r="H5"/>
       <c r="O5" s="21" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -3915,16 +4225,16 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -3951,7 +4261,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="O7" s="21" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -3978,7 +4288,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="O8" s="21" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -4090,7 +4400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C07E3FC-DC4C-42F7-B6FA-70B9C70DC753}">
   <dimension ref="B1:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4110,7 +4420,7 @@
     </row>
     <row r="2" spans="2:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2"/>
@@ -4121,19 +4431,19 @@
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="O3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4"/>
       <c r="O4" s="21" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4143,7 +4453,7 @@
       <c r="F5" s="1"/>
       <c r="G5"/>
       <c r="O5" s="21" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -4151,19 +4461,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="O6" s="21" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -4189,7 +4499,7 @@
     </row>
     <row r="8" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C8" s="20">
         <f>FIND(":",B8,1)</f>
@@ -4209,10 +4519,10 @@
     </row>
     <row r="9" spans="2:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B9" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C9" s="20">
-        <f t="shared" ref="C8:C9" si="2">FIND(":",B9,1)</f>
+        <f t="shared" ref="C9" si="2">FIND(":",B9,1)</f>
         <v>5</v>
       </c>
       <c r="D9" s="20" t="str">
@@ -4257,7 +4567,7 @@
     </row>
     <row r="2" spans="2:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2"/>
@@ -4268,31 +4578,31 @@
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4"/>
       <c r="P4" s="21" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5"/>
       <c r="P5" s="21" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4302,7 +4612,7 @@
       <c r="F6" s="1"/>
       <c r="G6"/>
       <c r="P6" s="21" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
@@ -4310,29 +4620,29 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="P7" s="21" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B8" s="7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C8" s="20">
         <f>FIND(":",B8,1)</f>
@@ -4357,12 +4667,12 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="P8" s="21" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B9" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C9" s="20">
         <f>FIND(":",B9,1)</f>
@@ -4390,12 +4700,12 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="P10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="P11" s="21" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
@@ -4403,7 +4713,7 @@
       <c r="F12" s="1"/>
       <c r="H12" s="1"/>
       <c r="P12" s="21" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
@@ -4411,20 +4721,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B14" s="7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C14" s="20" t="str">
         <f>LEFT(B14,3)</f>
@@ -4445,7 +4755,7 @@
     </row>
     <row r="15" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C15" s="20" t="str">
         <f>LEFT(B15,3)</f>
@@ -4479,8 +4789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0B185F-9528-48D9-987D-20BADA2B920B}">
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4494,7 +4804,7 @@
   <sheetData>
     <row r="2" spans="2:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -4503,22 +4813,22 @@
     </row>
     <row r="4" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="H4" s="1"/>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2"/>
       <c r="H5" s="1"/>
       <c r="P5" s="21" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
@@ -4533,10 +4843,10 @@
     </row>
     <row r="8" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4564,8 +4874,14 @@
       <c r="C10" s="8">
         <v>89.99</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="18" t="str">
+        <f>TRIM(B10)</f>
+        <v>Leonardo Almeida</v>
+      </c>
+      <c r="F10" s="19">
+        <f>C10</f>
+        <v>89.99</v>
+      </c>
     </row>
     <row r="11" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B11" s="7" t="s">
@@ -4574,8 +4890,14 @@
       <c r="C11" s="8">
         <v>69.989999999999995</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="18" t="str">
+        <f t="shared" ref="E11:E17" si="0">TRIM(B11)</f>
+        <v>Eliane Moreira</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" ref="F11:F17" si="1">C11</f>
+        <v>69.989999999999995</v>
+      </c>
     </row>
     <row r="12" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B12" s="7" t="s">
@@ -4584,8 +4906,14 @@
       <c r="C12" s="8">
         <v>153.4</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas Pereira</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
+        <v>153.4</v>
+      </c>
     </row>
     <row r="13" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B13" s="7" t="s">
@@ -4594,8 +4922,14 @@
       <c r="C13" s="8">
         <v>148.56</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Amanda Martins</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
+        <v>148.56</v>
+      </c>
     </row>
     <row r="14" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B14" s="7" t="s">
@@ -4604,8 +4938,14 @@
       <c r="C14" s="8">
         <v>146.13999999999999</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulo Santos</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="1"/>
+        <v>146.13999999999999</v>
+      </c>
     </row>
     <row r="15" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
@@ -4614,8 +4954,14 @@
       <c r="C15" s="8">
         <v>224.14</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Aline Rosa Alves</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="1"/>
+        <v>224.14</v>
+      </c>
     </row>
     <row r="16" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B16" s="7" t="s">
@@ -4624,8 +4970,14 @@
       <c r="C16" s="8">
         <v>150.5</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Angela Maria</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="1"/>
+        <v>150.5</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B17" s="7" t="s">
@@ -4634,8 +4986,14 @@
       <c r="C17" s="8">
         <v>248.73</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Carlos Moreira Pires</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="1"/>
+        <v>248.73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
